--- a/업무일지/업무내용.xlsx
+++ b/업무일지/업무내용.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYH\OneDrive\바탕 화면\신라시스템 현장실습\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYH\OneDrive\문서\GitHub\SillasSystem_project\업무일지\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="업무내용" sheetId="1" r:id="rId1"/>
+    <sheet name="1일차" sheetId="1" r:id="rId1"/>
+    <sheet name="2일차" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>㈜신라시스템</t>
   </si>
@@ -107,6 +108,60 @@
   <si>
     <t>깃허브 프로젝트 생성
 https://github.com/ssom94091/SillasSystem_project/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자정보표준프레임워크로 게시판 따라 만들어보기.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 아마존 AWS EC2 이용. / 아파치&amp;톰캣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP, SPRING 각자 공부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신라시스템 홈페이지 일정부분 따라만들기 (개념,구성 파악)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유튜브 강의 참고(나동빈 - JSP 웹사이트 개발하기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP 개인 실습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금일 목표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">신라시스템 홈페이지를 따라 만드는데, CSS를 구현하는 부분에서 에러사항이 많았음.  따라서 100% 따라하지는 못할지라도, 
+어느정도 흐름도만 이해하고 간단한 프로젝트를 정하여 만들어 볼 예정이다.
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -417,13 +472,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -454,6 +558,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,17 +585,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -780,48 +920,48 @@
   <sheetData>
     <row r="1" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="H2" s="13" t="s">
+      <c r="D2" s="18"/>
+      <c r="H2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="14"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="3:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="H3" s="10" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="H3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -878,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -897,7 +1037,9 @@
         <v>4</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="3:10" ht="33" x14ac:dyDescent="0.3">
       <c r="C9" s="5">
@@ -906,7 +1048,7 @@
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="6"/>
@@ -914,7 +1056,9 @@
         <v>5</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C10" s="5">
@@ -1122,4 +1266,442 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="4.375" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="52.75" customWidth="1"/>
+    <col min="8" max="8" width="4.375" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="63.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="H2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="3:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="H3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="6"/>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="H8" s="5">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="F9" s="6"/>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="5">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="H10" s="5">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="5">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="5">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="5">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="H13" s="5">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="5">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="H14" s="5">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="5">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="5">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="H16" s="5">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="5">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="H17" s="5">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="5">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="6"/>
+      <c r="H18" s="5">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="5">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="H19" s="5">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="5">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="H20" s="5">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="5">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="H21" s="5">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="5">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="H22" s="5">
+        <v>18</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="5">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="H23" s="5">
+        <v>19</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="7">
+        <v>20</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="H24" s="7">
+        <v>20</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+    </row>
+    <row r="26" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="29"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="22"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C29" s="22"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="23"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="22"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="22"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="22"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C27:J33"/>
+    <mergeCell ref="C26:D26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/업무일지/업무내용.xlsx
+++ b/업무일지/업무내용.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1일차" sheetId="1" r:id="rId1"/>
     <sheet name="2일차" sheetId="2" r:id="rId2"/>
+    <sheet name="3일차" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>㈜신라시스템</t>
   </si>
@@ -152,16 +153,92 @@
   </si>
   <si>
     <t>금일 목표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에러사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">신라시스템 홈페이지를 따라 만드는데, CSS를 구현하는 부분에서 에러사항이 많았음.  따라서 100% 따라하지는 못할지라도, 
 어느정도 흐름도만 이해하고 간단한 프로젝트를 정하여 만들어 볼 예정이다.
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWS EC2에 아파치/톰캣 설치 및 MYSQL 연결방법 정리(우분투)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간단한 웹 개발 프로젝트 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활용가치 있는 공공데이터 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활용가치 있는 공공데이터 &amp; API 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 JSP 학습 &amp; 실습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소규모 프로젝트 고안 및 설계 (일정관리시스템)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송영민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송영민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP(서브렛) 학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(http://shoelace.io/ )   -  부트스트랩 레이아웃 설정 사이트
+자바스크립트 GPS API - Geolocation (https://www.zerocho.com/category/HTML&amp;DOM/post/59155228a22a5d001827ea5d)
+쓸만한 공공데이터 
+1. 전국공공시설개방정보표준데이터 (개방시설명,개방장소명,유형,휴관일,운영시간,부대시설,위도경도 포함)
+2. 전국무인교통단속카메라표준데이터 (관리번호,시도명,도로종류,도로노선번호,도로노선명,노선방향,소재지주소,위도경도, 설치장소, 제한속도 등)
+3. 코로나19감염증으로 인한 일별 확진자, 완치자, 치료중인환자, 사망자등에 대한 현황자료
+구글 로그인, 캘린더, 번역기 API
+JSP 참고문헌 - JSPStudy의 JSP 웹프로그래밍(입문+활용) / 신라시스템 2층 서적
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송영민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP 참고문헌 ( Sevlet이해 ,실습)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,8 +289,18 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,8 +319,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -521,13 +620,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -570,56 +680,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,6 +788,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>537613</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068301" y="5448300"/>
+          <a:ext cx="5147712" cy="2248185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -920,27 +1121,27 @@
   <sheetData>
     <row r="1" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="H2" s="17" t="s">
+      <c r="D2" s="26"/>
+      <c r="H2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="18"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="3:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="H3" s="14" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="H3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="10" t="s">
@@ -1272,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1288,27 +1489,27 @@
   <sheetData>
     <row r="1" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="H2" s="17" t="s">
+      <c r="D2" s="26"/>
+      <c r="H2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="18"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="3:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="H3" s="14" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="H3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="10" t="s">
@@ -1605,91 +1806,91 @@
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="37"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="29"/>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C27" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="21"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="22"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="23"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="32"/>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="22"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="23"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="22"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="23"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32"/>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="22"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="23"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="32"/>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="22"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="23"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="32"/>
     </row>
     <row r="33" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1704,4 +1905,458 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="4.375" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="52.75" customWidth="1"/>
+    <col min="8" max="8" width="4.375" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="55.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="H2" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="3:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="H3" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
+    </row>
+    <row r="4" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="H8" s="5">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="5">
+        <v>6</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="H10" s="5">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="5">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="5">
+        <v>8</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="5">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5">
+        <v>9</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="H13" s="5">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="5">
+        <v>10</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="H14" s="5">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="5">
+        <v>11</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="5">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
+        <v>12</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="H16" s="5">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="5">
+        <v>13</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="H17" s="5">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="5">
+        <v>14</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="6"/>
+      <c r="H18" s="5">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="5">
+        <v>15</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="H19" s="5">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="5">
+        <v>16</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="H20" s="5">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="5">
+        <v>17</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="H21" s="5">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="5">
+        <v>18</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="H22" s="5">
+        <v>18</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="5">
+        <v>19</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="H23" s="5">
+        <v>19</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="7">
+        <v>20</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="H24" s="7">
+        <v>20</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="42"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C27:J33"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C26:D26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/업무일지/업무내용.xlsx
+++ b/업무일지/업무내용.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1일차" sheetId="1" r:id="rId1"/>
     <sheet name="2일차" sheetId="2" r:id="rId2"/>
     <sheet name="3일차" sheetId="3" r:id="rId3"/>
+    <sheet name="4일차" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
   <si>
     <t>㈜신라시스템</t>
   </si>
@@ -239,6 +240,38 @@
   </si>
   <si>
     <t>JSP 참고문헌 ( Sevlet이해 ,실습)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인공부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML 개념 및 태그 정리 (깃 업로드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP를 이용한 서블릿 프로그래밍 학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>류지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드블록의 배치에 관한 MVC1, MVC2에 대해 학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML 참고 서적 - 실전프로젝트 반응형 웹퍼블리싱 With HTML5 CSS3 Javascript jQuery</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -752,25 +785,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1911,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:J33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1943,11 +1976,11 @@
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="10" t="s">
@@ -2268,82 +2301,82 @@
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="42"/>
+      <c r="D26" s="44"/>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2359,4 +2392,444 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="4.375" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="52.75" customWidth="1"/>
+    <col min="8" max="8" width="4.375" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="55.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="H2" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="3:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="H3" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+    </row>
+    <row r="4" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="H8" s="5">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="F9" s="6"/>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="5">
+        <v>6</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="H10" s="5">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="5">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="5">
+        <v>8</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="5">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5">
+        <v>9</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="H13" s="5">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="5">
+        <v>10</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="H14" s="5">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="5">
+        <v>11</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="5">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
+        <v>12</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="H16" s="5">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="5">
+        <v>13</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="H17" s="5">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="5">
+        <v>14</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="6"/>
+      <c r="H18" s="5">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="5">
+        <v>15</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="H19" s="5">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="5">
+        <v>16</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="H20" s="5">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="5">
+        <v>17</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="H21" s="5">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="5">
+        <v>18</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="H22" s="5">
+        <v>18</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="5">
+        <v>19</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="H23" s="5">
+        <v>19</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="7">
+        <v>20</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="H24" s="7">
+        <v>20</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="44"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C27:J33"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C26:D26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/업무일지/업무내용.xlsx
+++ b/업무일지/업무내용.xlsx
@@ -9,13 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1일차" sheetId="1" r:id="rId1"/>
     <sheet name="2일차" sheetId="2" r:id="rId2"/>
     <sheet name="3일차" sheetId="3" r:id="rId3"/>
     <sheet name="4일차" sheetId="4" r:id="rId4"/>
+    <sheet name="5일차" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="64">
   <si>
     <t>㈜신라시스템</t>
   </si>
@@ -272,6 +277,26 @@
   </si>
   <si>
     <t>HTML 참고 서적 - 실전프로젝트 반응형 웹퍼블리싱 With HTML5 CSS3 Javascript jQuery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS개념 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이클립스&amp;톰캣 환경설정 및 JSP+DB연동 교육 및 실습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 내용 미팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2398,8 +2423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2832,4 +2857,2195 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="4.375" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="52.75" customWidth="1"/>
+    <col min="8" max="8" width="4.375" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="55.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="H2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="3:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="H3" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+    </row>
+    <row r="4" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="6"/>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="H8" s="5">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="F9" s="6"/>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="5">
+        <v>6</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="H10" s="5">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="5">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="5">
+        <v>8</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="5">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5">
+        <v>9</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="H13" s="5">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="5">
+        <v>10</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="H14" s="5">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="5">
+        <v>11</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="5">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
+        <v>12</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="H16" s="5">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="5">
+        <v>13</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="H17" s="5">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="5">
+        <v>14</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="6"/>
+      <c r="H18" s="5">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="5">
+        <v>15</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="H19" s="5">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="5">
+        <v>16</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="H20" s="5">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="5">
+        <v>17</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="H21" s="5">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="5">
+        <v>18</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="H22" s="5">
+        <v>18</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="5">
+        <v>19</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="H23" s="5">
+        <v>19</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="7">
+        <v>20</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="H24" s="7">
+        <v>20</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="44"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:J33"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:J33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="4.375" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="52.75" customWidth="1"/>
+    <col min="8" max="8" width="4.375" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="55.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="H2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="3:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="H3" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+    </row>
+    <row r="4" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="H8" s="5">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="F9" s="6"/>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="5">
+        <v>6</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="H10" s="5">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="5">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="5">
+        <v>8</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="5">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5">
+        <v>9</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="H13" s="5">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="5">
+        <v>10</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="H14" s="5">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="5">
+        <v>11</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="5">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
+        <v>12</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="H16" s="5">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="5">
+        <v>13</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="H17" s="5">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="5">
+        <v>14</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="6"/>
+      <c r="H18" s="5">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="5">
+        <v>15</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="H19" s="5">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="5">
+        <v>16</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="H20" s="5">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="5">
+        <v>17</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="H21" s="5">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="5">
+        <v>18</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="H22" s="5">
+        <v>18</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="5">
+        <v>19</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="H23" s="5">
+        <v>19</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="7">
+        <v>20</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="H24" s="7">
+        <v>20</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="44"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:J33"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:J33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="4.375" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="52.75" customWidth="1"/>
+    <col min="8" max="8" width="4.375" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="55.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="H2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="3:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="H3" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+    </row>
+    <row r="4" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="H8" s="5">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="F9" s="6"/>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="5">
+        <v>6</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="H10" s="5">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="5">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="5">
+        <v>8</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="5">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5">
+        <v>9</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="H13" s="5">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="5">
+        <v>10</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="H14" s="5">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="5">
+        <v>11</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="5">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
+        <v>12</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="H16" s="5">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="5">
+        <v>13</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="H17" s="5">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="5">
+        <v>14</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="6"/>
+      <c r="H18" s="5">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="5">
+        <v>15</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="H19" s="5">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="5">
+        <v>16</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="H20" s="5">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="5">
+        <v>17</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="H21" s="5">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="5">
+        <v>18</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="H22" s="5">
+        <v>18</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="5">
+        <v>19</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="H23" s="5">
+        <v>19</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="7">
+        <v>20</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="H24" s="7">
+        <v>20</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="44"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:J33"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:J33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="4.375" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="52.75" customWidth="1"/>
+    <col min="8" max="8" width="4.375" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="55.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="H2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="3:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="H3" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+    </row>
+    <row r="4" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="H8" s="5">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="F9" s="6"/>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="5">
+        <v>6</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="H10" s="5">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="5">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="5">
+        <v>8</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="5">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5">
+        <v>9</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="H13" s="5">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="5">
+        <v>10</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="H14" s="5">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="5">
+        <v>11</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="5">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
+        <v>12</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="H16" s="5">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="5">
+        <v>13</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="H17" s="5">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="5">
+        <v>14</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="6"/>
+      <c r="H18" s="5">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="5">
+        <v>15</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="H19" s="5">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="5">
+        <v>16</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="H20" s="5">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="5">
+        <v>17</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="H21" s="5">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="5">
+        <v>18</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="H22" s="5">
+        <v>18</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="5">
+        <v>19</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="H23" s="5">
+        <v>19</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="7">
+        <v>20</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="H24" s="7">
+        <v>20</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="44"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:J33"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:J33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="4.375" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="52.75" customWidth="1"/>
+    <col min="8" max="8" width="4.375" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="55.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="H2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="3:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="H3" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+    </row>
+    <row r="4" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="H8" s="5">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="F9" s="6"/>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="5">
+        <v>6</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="H10" s="5">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="5">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="5">
+        <v>8</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="5">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5">
+        <v>9</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="H13" s="5">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="5">
+        <v>10</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="H14" s="5">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="5">
+        <v>11</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="5">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
+        <v>12</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="H16" s="5">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="5">
+        <v>13</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="H17" s="5">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="5">
+        <v>14</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="6"/>
+      <c r="H18" s="5">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="5">
+        <v>15</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="H19" s="5">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="5">
+        <v>16</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="H20" s="5">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="5">
+        <v>17</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="H21" s="5">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="5">
+        <v>18</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="H22" s="5">
+        <v>18</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="5">
+        <v>19</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="H23" s="5">
+        <v>19</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="7">
+        <v>20</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="H24" s="7">
+        <v>20</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="44"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:J33"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/업무일지/업무내용.xlsx
+++ b/업무일지/업무내용.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1일차" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="3일차" sheetId="3" r:id="rId3"/>
     <sheet name="4일차" sheetId="4" r:id="rId4"/>
     <sheet name="5일차" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="6일차" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet4" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet5" sheetId="9" r:id="rId9"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="77">
   <si>
     <t>㈜신라시스템</t>
   </si>
@@ -297,6 +297,59 @@
   </si>
   <si>
     <t>프로젝트 내용 미팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발일정 계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤치마킹 (K-비대면바우처플랫폼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항분석(관리자,서버관리자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송영민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>류지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항분석(사용자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 계획서 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송영민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근로계약서 작성은 관리자가 직접 작성하며 작성 시 네이버 스마트에디터3.0 API를 활용하면 도움이 될 것 같다.
+글 작성 -&gt; 작성된 글을 API가 HTML 코드로 변환 -&gt; 변환 된 코드를 DB에 전체 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 미팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,7 +443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -689,13 +742,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,6 +992,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2863,7 +3050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -3282,12 +3469,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C27:J33"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:J33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3298,8 +3485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:J1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3315,11 +3502,11 @@
     <row r="1" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="25" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D2" s="26"/>
       <c r="H2" s="25" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="I2" s="26"/>
     </row>
@@ -3363,30 +3550,28 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>19</v>
+      <c r="D5" s="46" t="s">
+        <v>66</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F5" s="4"/>
       <c r="H5" s="2">
         <v>1</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="5">
+      <c r="C6" s="47">
         <v>2</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>55</v>
+      <c r="D6" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>67</v>
       </c>
       <c r="F6" s="6"/>
       <c r="H6" s="5">
@@ -3396,14 +3581,14 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="5">
+      <c r="C7" s="47">
         <v>3</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>57</v>
+      <c r="D7" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>68</v>
       </c>
       <c r="F7" s="6"/>
       <c r="H7" s="5">
@@ -3416,8 +3601,12 @@
       <c r="C8" s="5">
         <v>4</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="H8" s="5">
         <v>4</v>
@@ -3429,7 +3618,12 @@
       <c r="C9" s="5">
         <v>5</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="H9" s="5">
         <v>5</v>
@@ -3441,8 +3635,12 @@
       <c r="C10" s="5">
         <v>6</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="H10" s="5">
         <v>6</v>
@@ -3454,7 +3652,7 @@
       <c r="C11" s="5">
         <v>7</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="1"/>
       <c r="F11" s="6"/>
       <c r="H11" s="5">
@@ -3467,7 +3665,7 @@
       <c r="C12" s="5">
         <v>8</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="1"/>
       <c r="F12" s="6"/>
       <c r="H12" s="5">
@@ -3649,7 +3847,7 @@
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C27" s="38" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
@@ -3721,12 +3919,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C27:J33"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:J33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4160,12 +4358,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C27:J33"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:J33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4599,12 +4797,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C27:J33"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:J33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5038,12 +5236,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C27:J33"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:J33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/업무일지/업무내용.xlsx
+++ b/업무일지/업무내용.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1일차" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,11 @@
     <sheet name="4일차" sheetId="4" r:id="rId4"/>
     <sheet name="5일차" sheetId="5" r:id="rId5"/>
     <sheet name="6일차" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet4" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet5" sheetId="9" r:id="rId9"/>
+    <sheet name="7일차" sheetId="7" r:id="rId7"/>
+    <sheet name="8일차" sheetId="8" r:id="rId8"/>
+    <sheet name="9일차" sheetId="9" r:id="rId9"/>
+    <sheet name="10일차" sheetId="18" r:id="rId10"/>
+    <sheet name="11일차" sheetId="19" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="89">
   <si>
     <t>㈜신라시스템</t>
   </si>
@@ -352,11 +354,62 @@
     <t>프로젝트 미팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>7일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 일정계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPRING 교육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획서 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8일차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="#&quot;일&quot;&quot;차&quot;"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -858,7 +911,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,6 +976,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -994,28 +1071,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1366,27 +1425,27 @@
   <sheetData>
     <row r="1" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="H2" s="25" t="s">
+      <c r="D2" s="34"/>
+      <c r="H2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="26"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="3:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="H3" s="22" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="H3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="10" t="s">
@@ -1711,6 +1770,854 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:J33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="4.375" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="52.75" customWidth="1"/>
+    <col min="8" max="8" width="4.375" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="55.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="53">
+        <v>10</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="H2" s="53">
+        <f>C2</f>
+        <v>10</v>
+      </c>
+      <c r="I2" s="54"/>
+    </row>
+    <row r="3" spans="3:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="H3" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+    </row>
+    <row r="4" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="6"/>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="H8" s="5">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="F9" s="6"/>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="5">
+        <v>6</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="H10" s="5">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="5">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="5">
+        <v>8</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="5">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5">
+        <v>9</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="H13" s="5">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="5">
+        <v>10</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="H14" s="5">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="5">
+        <v>11</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="5">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
+        <v>12</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="H16" s="5">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="5">
+        <v>13</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="H17" s="5">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="5">
+        <v>14</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="6"/>
+      <c r="H18" s="5">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="5">
+        <v>15</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="H19" s="5">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="5">
+        <v>16</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="H20" s="5">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="5">
+        <v>17</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="H21" s="5">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="5">
+        <v>18</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="H22" s="5">
+        <v>18</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="5">
+        <v>19</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="H23" s="5">
+        <v>19</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="7">
+        <v>20</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="H24" s="7">
+        <v>20</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="52"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:J33"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:J33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="4.375" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="52.75" customWidth="1"/>
+    <col min="8" max="8" width="4.375" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="55.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="53">
+        <v>11</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="H2" s="53">
+        <f>C2</f>
+        <v>11</v>
+      </c>
+      <c r="I2" s="54"/>
+    </row>
+    <row r="3" spans="3:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="H3" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+    </row>
+    <row r="4" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="6"/>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="H8" s="5">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="F9" s="6"/>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="5">
+        <v>6</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="H10" s="5">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="5">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="5">
+        <v>8</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="5">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5">
+        <v>9</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="H13" s="5">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="5">
+        <v>10</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+      <c r="H14" s="5">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="5">
+        <v>11</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="5">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
+        <v>12</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="H16" s="5">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="5">
+        <v>13</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="H17" s="5">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="5">
+        <v>14</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="6"/>
+      <c r="H18" s="5">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="5">
+        <v>15</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="H19" s="5">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="5">
+        <v>16</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="H20" s="5">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="5">
+        <v>17</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="H21" s="5">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="5">
+        <v>18</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="H22" s="5">
+        <v>18</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="5">
+        <v>19</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="H23" s="5">
+        <v>19</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="7">
+        <v>20</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="H24" s="7">
+        <v>20</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="52"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:J33"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1734,27 +2641,27 @@
   <sheetData>
     <row r="1" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="H2" s="25" t="s">
+      <c r="D2" s="34"/>
+      <c r="H2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="26"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="3:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="H3" s="22" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="H3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="10" t="s">
@@ -2060,82 +2967,82 @@
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="37"/>
+      <c r="D26" s="45"/>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="29"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="32"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="40"/>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="32"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="32"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="32"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40"/>
     </row>
     <row r="33" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="33"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="35"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2172,27 +3079,27 @@
   <sheetData>
     <row r="1" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="H2" s="25" t="s">
+      <c r="D2" s="34"/>
+      <c r="H2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="26"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="3:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="H3" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="10" t="s">
@@ -2513,82 +3420,82 @@
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="44"/>
+      <c r="D26" s="52"/>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2626,27 +3533,27 @@
   <sheetData>
     <row r="1" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="H2" s="25" t="s">
+      <c r="D2" s="34"/>
+      <c r="H2" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="26"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="3:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="H3" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="10" t="s">
@@ -2954,82 +3861,82 @@
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="44"/>
+      <c r="D26" s="52"/>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3066,27 +3973,27 @@
   <sheetData>
     <row r="1" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="H2" s="25" t="s">
+      <c r="D2" s="34"/>
+      <c r="H2" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="26"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="3:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="H3" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="10" t="s">
@@ -3392,80 +4299,80 @@
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="44"/>
+      <c r="D26" s="52"/>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3485,8 +4392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3501,27 +4408,27 @@
   <sheetData>
     <row r="1" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="H2" s="25" t="s">
+      <c r="D2" s="34"/>
+      <c r="H2" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="26"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="3:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="H3" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="10" t="s">
@@ -3550,7 +4457,7 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="23" t="s">
         <v>66</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -3564,13 +4471,13 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="47">
+      <c r="C6" s="24">
         <v>2</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="25" t="s">
         <v>67</v>
       </c>
       <c r="F6" s="6"/>
@@ -3581,13 +4488,13 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="47">
+      <c r="C7" s="24">
         <v>3</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="25" t="s">
         <v>68</v>
       </c>
       <c r="F7" s="6"/>
@@ -3601,7 +4508,7 @@
       <c r="C8" s="5">
         <v>4</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="22" t="s">
         <v>70</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -3652,7 +4559,7 @@
       <c r="C11" s="5">
         <v>7</v>
       </c>
-      <c r="D11" s="51"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="1"/>
       <c r="F11" s="6"/>
       <c r="H11" s="5">
@@ -3665,7 +4572,7 @@
       <c r="C12" s="5">
         <v>8</v>
       </c>
-      <c r="D12" s="52"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="1"/>
       <c r="F12" s="6"/>
       <c r="H12" s="5">
@@ -3840,82 +4747,82 @@
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="44"/>
+      <c r="D26" s="52"/>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3936,7 +4843,7 @@
   <dimension ref="C1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:J1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3951,27 +4858,27 @@
   <sheetData>
     <row r="1" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="H2" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="26"/>
+      <c r="C2" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="H2" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="3:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="H3" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="10" t="s">
@@ -4001,10 +4908,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F5" s="4"/>
       <c r="H5" s="2">
@@ -4012,7 +4919,7 @@
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="4" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
@@ -4020,27 +4927,29 @@
         <v>2</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="F6" s="6"/>
       <c r="H6" s="5">
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C7" s="5">
         <v>3</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="F7" s="6"/>
       <c r="H7" s="5">
@@ -4279,82 +5188,80 @@
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="44"/>
+      <c r="D26" s="52"/>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C27" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4367,6 +5274,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4374,8 +5282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:J1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4390,27 +5298,27 @@
   <sheetData>
     <row r="1" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="H2" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="26"/>
+      <c r="C2" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="H2" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="3:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="H3" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="10" t="s">
@@ -4439,31 +5347,21 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="4"/>
       <c r="H5" s="2">
         <v>1</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C6" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>55</v>
-      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="6"/>
       <c r="H6" s="5">
         <v>2</v>
@@ -4475,12 +5373,8 @@
       <c r="C7" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="6"/>
       <c r="H7" s="5">
         <v>3</v>
@@ -4718,82 +5612,80 @@
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="44"/>
+      <c r="D26" s="52"/>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C27" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4814,7 +5706,7 @@
   <dimension ref="C1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:J1048576"/>
+      <selection activeCell="C27" sqref="C27:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4829,27 +5721,28 @@
   <sheetData>
     <row r="1" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="H2" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="26"/>
+      <c r="C2" s="53">
+        <v>9</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="H2" s="53">
+        <f>C2</f>
+        <v>9</v>
+      </c>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="3:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="H3" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="10" t="s">
@@ -4878,31 +5771,21 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="4"/>
       <c r="H5" s="2">
         <v>1</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C6" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>55</v>
-      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="6"/>
       <c r="H6" s="5">
         <v>2</v>
@@ -4914,12 +5797,8 @@
       <c r="C7" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="6"/>
       <c r="H7" s="5">
         <v>3</v>
@@ -5157,82 +6036,80 @@
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="44"/>
+      <c r="D26" s="52"/>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C27" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/업무일지/업무내용.xlsx
+++ b/업무일지/업무내용.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="91">
   <si>
     <t>㈜신라시스템</t>
   </si>
@@ -402,13 +402,21 @@
     <t>8일차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>요구사항 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델링(UML)작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="#&quot;일&quot;&quot;차&quot;"/>
+    <numFmt numFmtId="176" formatCode="#&quot;일&quot;&quot;차&quot;"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1071,10 +1079,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1136,6 +1144,67 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>168338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>39074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13535025" y="168338"/>
+          <a:ext cx="5324475" cy="6366786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="88900" cap="sq" cmpd="thickThin">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="76200">
+            <a:srgbClr val="000000"/>
+          </a:innerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2185,12 +2254,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C27:J33"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:J33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2609,12 +2678,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C27:J33"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:J33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5282,8 +5351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5354,7 +5423,9 @@
         <v>1</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C6" s="5">
@@ -5367,7 +5438,9 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C7" s="5">
@@ -5698,6 +5771,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
